--- a/Organización/Capacitacion/Evaluaciónes/EC_Area de procesos_100715.xlsx
+++ b/Organización/Capacitacion/Evaluaciónes/EC_Area de procesos_100715.xlsx
@@ -108,9 +108,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,8 +327,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -342,23 +348,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -643,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,23 +650,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="123.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -700,31 +697,31 @@
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="14">
-        <v>5</v>
-      </c>
-      <c r="C3" s="14">
-        <v>5</v>
-      </c>
-      <c r="D3" s="14">
-        <v>5</v>
-      </c>
-      <c r="E3" s="16">
-        <v>5</v>
-      </c>
-      <c r="F3" s="14">
+      <c r="B3" s="10">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10">
+        <v>5</v>
+      </c>
+      <c r="E3" s="17">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10">
         <v>4</v>
       </c>
-      <c r="G3" s="14">
-        <v>5</v>
-      </c>
-      <c r="H3" s="14">
-        <v>5</v>
-      </c>
-      <c r="I3" s="14">
-        <v>5</v>
-      </c>
-      <c r="J3" s="18">
+      <c r="G3" s="10">
+        <v>5</v>
+      </c>
+      <c r="H3" s="10">
+        <v>5</v>
+      </c>
+      <c r="I3" s="10">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12">
         <f>(B3+C3+D3+E3+F3+G3+H3+I3)/8</f>
         <v>4.875</v>
       </c>
@@ -733,45 +730,45 @@
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="19"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14">
-        <v>5</v>
-      </c>
-      <c r="C5" s="14">
-        <v>5</v>
-      </c>
-      <c r="D5" s="14">
-        <v>5</v>
-      </c>
-      <c r="E5" s="14">
-        <v>5</v>
-      </c>
-      <c r="F5" s="14">
+      <c r="B5" s="10">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10">
         <v>4</v>
       </c>
-      <c r="G5" s="14">
-        <v>5</v>
-      </c>
-      <c r="H5" s="14">
-        <v>5</v>
-      </c>
-      <c r="I5" s="14">
-        <v>5</v>
-      </c>
-      <c r="J5" s="18">
+      <c r="G5" s="10">
+        <v>5</v>
+      </c>
+      <c r="H5" s="10">
+        <v>5</v>
+      </c>
+      <c r="I5" s="10">
+        <v>5</v>
+      </c>
+      <c r="J5" s="12">
         <f t="shared" ref="J5" si="0">(B5+C5+D5+E5+F5+G5+H5+I5)/8</f>
         <v>4.875</v>
       </c>
@@ -780,45 +777,45 @@
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="14">
-        <v>5</v>
-      </c>
-      <c r="C7" s="14">
-        <v>5</v>
-      </c>
-      <c r="D7" s="14">
-        <v>5</v>
-      </c>
-      <c r="E7" s="14">
-        <v>5</v>
-      </c>
-      <c r="F7" s="14">
+      <c r="B7" s="10">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10">
+        <v>5</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10">
         <v>4</v>
       </c>
-      <c r="G7" s="14">
-        <v>5</v>
-      </c>
-      <c r="H7" s="14">
-        <v>5</v>
-      </c>
-      <c r="I7" s="14">
-        <v>5</v>
-      </c>
-      <c r="J7" s="18">
+      <c r="G7" s="10">
+        <v>5</v>
+      </c>
+      <c r="H7" s="10">
+        <v>5</v>
+      </c>
+      <c r="I7" s="10">
+        <v>5</v>
+      </c>
+      <c r="J7" s="12">
         <f t="shared" ref="J7" si="1">(B7+C7+D7+E7+F7+G7+H7+I7)/8</f>
         <v>4.875</v>
       </c>
@@ -827,45 +824,45 @@
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="19"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="14">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14">
-        <v>5</v>
-      </c>
-      <c r="D9" s="14">
-        <v>5</v>
-      </c>
-      <c r="E9" s="14">
-        <v>5</v>
-      </c>
-      <c r="F9" s="14">
+      <c r="B9" s="10">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10">
         <v>4</v>
       </c>
-      <c r="G9" s="14">
-        <v>5</v>
-      </c>
-      <c r="H9" s="14">
-        <v>5</v>
-      </c>
-      <c r="I9" s="14">
-        <v>5</v>
-      </c>
-      <c r="J9" s="18">
+      <c r="G9" s="10">
+        <v>5</v>
+      </c>
+      <c r="H9" s="10">
+        <v>5</v>
+      </c>
+      <c r="I9" s="10">
+        <v>5</v>
+      </c>
+      <c r="J9" s="12">
         <f t="shared" ref="J9" si="2">(B9+C9+D9+E9+F9+G9+H9+I9)/8</f>
         <v>4.875</v>
       </c>
@@ -874,45 +871,45 @@
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="19"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="14">
-        <v>5</v>
-      </c>
-      <c r="C11" s="14">
-        <v>5</v>
-      </c>
-      <c r="D11" s="14">
-        <v>5</v>
-      </c>
-      <c r="E11" s="14">
-        <v>5</v>
-      </c>
-      <c r="F11" s="14">
+      <c r="B11" s="10">
+        <v>5</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10">
+        <v>5</v>
+      </c>
+      <c r="E11" s="10">
+        <v>5</v>
+      </c>
+      <c r="F11" s="10">
         <v>4</v>
       </c>
-      <c r="G11" s="14">
-        <v>5</v>
-      </c>
-      <c r="H11" s="14">
-        <v>5</v>
-      </c>
-      <c r="I11" s="14">
-        <v>5</v>
-      </c>
-      <c r="J11" s="18">
+      <c r="G11" s="10">
+        <v>5</v>
+      </c>
+      <c r="H11" s="10">
+        <v>5</v>
+      </c>
+      <c r="I11" s="10">
+        <v>5</v>
+      </c>
+      <c r="J11" s="12">
         <f t="shared" ref="J11" si="3">(B11+C11+D11+E11+F11+G11+H11+I11)/8</f>
         <v>4.875</v>
       </c>
@@ -921,45 +918,45 @@
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="14">
-        <v>5</v>
-      </c>
-      <c r="C13" s="14">
-        <v>5</v>
-      </c>
-      <c r="D13" s="14">
-        <v>5</v>
-      </c>
-      <c r="E13" s="14">
-        <v>5</v>
-      </c>
-      <c r="F13" s="14">
+      <c r="B13" s="10">
+        <v>5</v>
+      </c>
+      <c r="C13" s="10">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10">
+        <v>5</v>
+      </c>
+      <c r="E13" s="10">
+        <v>5</v>
+      </c>
+      <c r="F13" s="10">
         <v>4</v>
       </c>
-      <c r="G13" s="14">
-        <v>5</v>
-      </c>
-      <c r="H13" s="14">
-        <v>5</v>
-      </c>
-      <c r="I13" s="14">
-        <v>5</v>
-      </c>
-      <c r="J13" s="18">
+      <c r="G13" s="10">
+        <v>5</v>
+      </c>
+      <c r="H13" s="10">
+        <v>5</v>
+      </c>
+      <c r="I13" s="10">
+        <v>5</v>
+      </c>
+      <c r="J13" s="12">
         <f t="shared" ref="J13" si="4">(B13+C13+D13+E13+F13+G13+H13+I13)/8</f>
         <v>4.875</v>
       </c>
@@ -968,45 +965,45 @@
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="19"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="14">
-        <v>5</v>
-      </c>
-      <c r="C15" s="14">
-        <v>5</v>
-      </c>
-      <c r="D15" s="14">
-        <v>5</v>
-      </c>
-      <c r="E15" s="14">
-        <v>5</v>
-      </c>
-      <c r="F15" s="14">
+      <c r="B15" s="10">
+        <v>5</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5</v>
+      </c>
+      <c r="D15" s="10">
+        <v>5</v>
+      </c>
+      <c r="E15" s="10">
+        <v>5</v>
+      </c>
+      <c r="F15" s="10">
         <v>4</v>
       </c>
-      <c r="G15" s="14">
-        <v>5</v>
-      </c>
-      <c r="H15" s="14">
-        <v>5</v>
-      </c>
-      <c r="I15" s="14">
-        <v>5</v>
-      </c>
-      <c r="J15" s="18">
+      <c r="G15" s="10">
+        <v>5</v>
+      </c>
+      <c r="H15" s="10">
+        <v>5</v>
+      </c>
+      <c r="I15" s="10">
+        <v>5</v>
+      </c>
+      <c r="J15" s="12">
         <f t="shared" ref="J15" si="5">(B15+C15+D15+E15+F15+G15+H15+I15)/8</f>
         <v>4.875</v>
       </c>
@@ -1015,45 +1012,45 @@
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="19"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="14">
-        <v>5</v>
-      </c>
-      <c r="C17" s="14">
-        <v>5</v>
-      </c>
-      <c r="D17" s="14">
-        <v>5</v>
-      </c>
-      <c r="E17" s="14">
-        <v>5</v>
-      </c>
-      <c r="F17" s="14">
+      <c r="B17" s="10">
+        <v>5</v>
+      </c>
+      <c r="C17" s="10">
+        <v>5</v>
+      </c>
+      <c r="D17" s="10">
+        <v>5</v>
+      </c>
+      <c r="E17" s="10">
+        <v>5</v>
+      </c>
+      <c r="F17" s="10">
         <v>4</v>
       </c>
-      <c r="G17" s="14">
-        <v>5</v>
-      </c>
-      <c r="H17" s="14">
-        <v>5</v>
-      </c>
-      <c r="I17" s="14">
-        <v>5</v>
-      </c>
-      <c r="J17" s="18">
+      <c r="G17" s="10">
+        <v>5</v>
+      </c>
+      <c r="H17" s="10">
+        <v>5</v>
+      </c>
+      <c r="I17" s="10">
+        <v>5</v>
+      </c>
+      <c r="J17" s="12">
         <f t="shared" ref="J17" si="6">(B17+C17+D17+E17+F17+G17+H17+I17)/8</f>
         <v>4.875</v>
       </c>
@@ -1062,45 +1059,45 @@
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="19"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="14">
-        <v>5</v>
-      </c>
-      <c r="C19" s="14">
-        <v>5</v>
-      </c>
-      <c r="D19" s="14">
-        <v>5</v>
-      </c>
-      <c r="E19" s="14">
-        <v>5</v>
-      </c>
-      <c r="F19" s="14">
+      <c r="B19" s="10">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10">
+        <v>5</v>
+      </c>
+      <c r="D19" s="10">
+        <v>5</v>
+      </c>
+      <c r="E19" s="10">
+        <v>5</v>
+      </c>
+      <c r="F19" s="10">
         <v>4</v>
       </c>
-      <c r="G19" s="14">
-        <v>5</v>
-      </c>
-      <c r="H19" s="14">
-        <v>5</v>
-      </c>
-      <c r="I19" s="14">
-        <v>5</v>
-      </c>
-      <c r="J19" s="18">
+      <c r="G19" s="10">
+        <v>5</v>
+      </c>
+      <c r="H19" s="10">
+        <v>5</v>
+      </c>
+      <c r="I19" s="10">
+        <v>5</v>
+      </c>
+      <c r="J19" s="12">
         <f t="shared" ref="J19" si="7">(B19+C19+D19+E19+F19+G19+H19+I19)/8</f>
         <v>4.875</v>
       </c>
@@ -1109,45 +1106,45 @@
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="19"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="14">
-        <v>5</v>
-      </c>
-      <c r="C21" s="14">
-        <v>5</v>
-      </c>
-      <c r="D21" s="14">
-        <v>5</v>
-      </c>
-      <c r="E21" s="14">
-        <v>5</v>
-      </c>
-      <c r="F21" s="14">
+      <c r="B21" s="10">
+        <v>5</v>
+      </c>
+      <c r="C21" s="10">
+        <v>5</v>
+      </c>
+      <c r="D21" s="10">
+        <v>5</v>
+      </c>
+      <c r="E21" s="10">
+        <v>5</v>
+      </c>
+      <c r="F21" s="10">
         <v>4</v>
       </c>
-      <c r="G21" s="14">
-        <v>5</v>
-      </c>
-      <c r="H21" s="14">
-        <v>5</v>
-      </c>
-      <c r="I21" s="14">
-        <v>5</v>
-      </c>
-      <c r="J21" s="18">
+      <c r="G21" s="10">
+        <v>5</v>
+      </c>
+      <c r="H21" s="10">
+        <v>5</v>
+      </c>
+      <c r="I21" s="10">
+        <v>5</v>
+      </c>
+      <c r="J21" s="12">
         <f t="shared" ref="J21" si="8">(B21+C21+D21+E21+F21+G21+H21+I21)/8</f>
         <v>4.875</v>
       </c>
@@ -1156,45 +1153,45 @@
       <c r="A22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="19"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="14">
-        <v>5</v>
-      </c>
-      <c r="C23" s="14">
-        <v>5</v>
-      </c>
-      <c r="D23" s="14">
-        <v>5</v>
-      </c>
-      <c r="E23" s="14">
-        <v>5</v>
-      </c>
-      <c r="F23" s="14">
+      <c r="B23" s="10">
+        <v>5</v>
+      </c>
+      <c r="C23" s="10">
+        <v>5</v>
+      </c>
+      <c r="D23" s="10">
+        <v>5</v>
+      </c>
+      <c r="E23" s="10">
+        <v>5</v>
+      </c>
+      <c r="F23" s="10">
         <v>4</v>
       </c>
-      <c r="G23" s="14">
-        <v>5</v>
-      </c>
-      <c r="H23" s="14">
-        <v>5</v>
-      </c>
-      <c r="I23" s="14">
-        <v>5</v>
-      </c>
-      <c r="J23" s="18">
+      <c r="G23" s="10">
+        <v>5</v>
+      </c>
+      <c r="H23" s="10">
+        <v>5</v>
+      </c>
+      <c r="I23" s="10">
+        <v>5</v>
+      </c>
+      <c r="J23" s="12">
         <f>(B23+C23+D23+E23+F23+G23+H23+I23)/8</f>
         <v>4.875</v>
       </c>
@@ -1203,45 +1200,45 @@
       <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="19"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="14">
-        <v>5</v>
-      </c>
-      <c r="C25" s="14">
-        <v>5</v>
-      </c>
-      <c r="D25" s="14">
-        <v>5</v>
-      </c>
-      <c r="E25" s="14">
-        <v>5</v>
-      </c>
-      <c r="F25" s="14">
+      <c r="B25" s="10">
+        <v>5</v>
+      </c>
+      <c r="C25" s="10">
+        <v>5</v>
+      </c>
+      <c r="D25" s="10">
+        <v>5</v>
+      </c>
+      <c r="E25" s="10">
+        <v>5</v>
+      </c>
+      <c r="F25" s="10">
         <v>4</v>
       </c>
-      <c r="G25" s="14">
-        <v>5</v>
-      </c>
-      <c r="H25" s="14">
-        <v>5</v>
-      </c>
-      <c r="I25" s="14">
-        <v>5</v>
-      </c>
-      <c r="J25" s="18">
+      <c r="G25" s="10">
+        <v>5</v>
+      </c>
+      <c r="H25" s="10">
+        <v>5</v>
+      </c>
+      <c r="I25" s="10">
+        <v>5</v>
+      </c>
+      <c r="J25" s="12">
         <f>(B25+C25+D25+E25+F25+G25+H25+I25)/8</f>
         <v>4.875</v>
       </c>
@@ -1250,45 +1247,45 @@
       <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="19"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="14">
-        <v>5</v>
-      </c>
-      <c r="C27" s="14">
-        <v>5</v>
-      </c>
-      <c r="D27" s="14">
-        <v>5</v>
-      </c>
-      <c r="E27" s="14">
-        <v>5</v>
-      </c>
-      <c r="F27" s="14">
+      <c r="B27" s="10">
+        <v>5</v>
+      </c>
+      <c r="C27" s="10">
+        <v>5</v>
+      </c>
+      <c r="D27" s="10">
+        <v>5</v>
+      </c>
+      <c r="E27" s="10">
+        <v>5</v>
+      </c>
+      <c r="F27" s="10">
         <v>4</v>
       </c>
-      <c r="G27" s="14">
-        <v>5</v>
-      </c>
-      <c r="H27" s="14">
-        <v>5</v>
-      </c>
-      <c r="I27" s="14">
-        <v>5</v>
-      </c>
-      <c r="J27" s="18">
+      <c r="G27" s="10">
+        <v>5</v>
+      </c>
+      <c r="H27" s="10">
+        <v>5</v>
+      </c>
+      <c r="I27" s="10">
+        <v>5</v>
+      </c>
+      <c r="J27" s="12">
         <f>(B27+C27+D27+E27+F27+G27+H27+I27)/8</f>
         <v>4.875</v>
       </c>
@@ -1297,45 +1294,45 @@
       <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="19"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="14">
-        <v>5</v>
-      </c>
-      <c r="C29" s="14">
-        <v>5</v>
-      </c>
-      <c r="D29" s="14">
-        <v>5</v>
-      </c>
-      <c r="E29" s="14">
-        <v>5</v>
-      </c>
-      <c r="F29" s="14">
+      <c r="B29" s="10">
+        <v>5</v>
+      </c>
+      <c r="C29" s="10">
+        <v>5</v>
+      </c>
+      <c r="D29" s="10">
+        <v>5</v>
+      </c>
+      <c r="E29" s="10">
+        <v>5</v>
+      </c>
+      <c r="F29" s="10">
         <v>4</v>
       </c>
-      <c r="G29" s="14">
-        <v>5</v>
-      </c>
-      <c r="H29" s="14">
-        <v>5</v>
-      </c>
-      <c r="I29" s="14">
-        <v>5</v>
-      </c>
-      <c r="J29" s="18">
+      <c r="G29" s="10">
+        <v>5</v>
+      </c>
+      <c r="H29" s="10">
+        <v>5</v>
+      </c>
+      <c r="I29" s="10">
+        <v>5</v>
+      </c>
+      <c r="J29" s="12">
         <f>(B29+C29+D29+E29+F29+G29+H29+I29)/8</f>
         <v>4.875</v>
       </c>
@@ -1344,45 +1341,45 @@
       <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="19"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="14">
-        <v>5</v>
-      </c>
-      <c r="C31" s="14">
-        <v>5</v>
-      </c>
-      <c r="D31" s="14">
-        <v>5</v>
-      </c>
-      <c r="E31" s="14">
-        <v>5</v>
-      </c>
-      <c r="F31" s="14">
+      <c r="B31" s="10">
+        <v>5</v>
+      </c>
+      <c r="C31" s="10">
+        <v>5</v>
+      </c>
+      <c r="D31" s="10">
+        <v>5</v>
+      </c>
+      <c r="E31" s="10">
+        <v>5</v>
+      </c>
+      <c r="F31" s="10">
         <v>4</v>
       </c>
-      <c r="G31" s="14">
-        <v>5</v>
-      </c>
-      <c r="H31" s="14">
-        <v>5</v>
-      </c>
-      <c r="I31" s="14">
-        <v>5</v>
-      </c>
-      <c r="J31" s="18">
+      <c r="G31" s="10">
+        <v>5</v>
+      </c>
+      <c r="H31" s="10">
+        <v>5</v>
+      </c>
+      <c r="I31" s="10">
+        <v>5</v>
+      </c>
+      <c r="J31" s="12">
         <f>(B31+C31+D31+E31+F31+G31+H31+I31)/8</f>
         <v>4.875</v>
       </c>
@@ -1391,15 +1388,15 @@
       <c r="A32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="19"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
@@ -1413,94 +1410,52 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="10">
-        <f>(SUM(J3:J32)/15)/5</f>
-        <v>0.97499999999999998</v>
+      <c r="J33" s="19">
+        <f>(SUM(J3:J32)/15)</f>
+        <v>4.875</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="138">
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
@@ -1519,45 +1474,87 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
